--- a/XuehaiZhang/evidence.xlsx
+++ b/XuehaiZhang/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>TeamName</t>
   </si>
@@ -76,7 +76,7 @@
     <t>juno17tmylzn4n9ekeyvrkj248j2g490qs2yylk8p02</t>
   </si>
   <si>
-    <t>uptick17tmylzn4n9ekeyvrkj248j2g490qs2yy6zcp38</t>
+    <t>uptick185sz3rjpkuwt2g4y76melfp05xvydh70fnja5a</t>
   </si>
   <si>
     <t>omniflix17tmylzn4n9ekeyvrkj248j2g490qs2yy564rlg</t>
@@ -91,43 +91,217 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>921135C74BD0625B4D2361316550683938F005A4577D7317892B1C4DCA2C0479</t>
+  </si>
+  <si>
+    <t>zxhno1</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>846B0D3F2BADA26AE9ED1BEE242694FDCDBA328BCC89840AF695F3D4D910001D</t>
+  </si>
+  <si>
+    <t>zxh1</t>
+  </si>
+  <si>
+    <t>222CEC9177F30BEA963C87BF7F2BE0F11A4729186C28EDC43E2D4B68F23752A3</t>
+  </si>
+  <si>
+    <t>zxh2</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>A80752037F3E1F02DEDB59C2C141CD5DF48AC8CAD9A03E5EF32F8EE1F0E68016</t>
+  </si>
+  <si>
+    <t>stars16m9jzmgqwt3a3lv4y22k6rmu0sedppvkde6lsxr77hm09utdmkhql5zsu2</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>828827975DD6D4381781117099621A530704BBD328CE2C93264D5D6C534262E4</t>
+  </si>
+  <si>
+    <t>bc/1B4AB92AA9A436F83D82F90E691E995CD4CA2CA816357147F1F35482FD6A776F</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>DCF9F8370960243ABAA851165BAE1D2491A581BCDDB88CF5FCCECAA1A324349B</t>
+  </si>
+  <si>
+    <t>2E4F2B1F28D6A9792358713FBBD5F5E5C18FF47133D04CD3F15BD18A96E2FE80</t>
+  </si>
+  <si>
+    <t>ibc/E6665F700795E6F13CF915D636BB5242AAAD71B22405447759A17897A6B6F52E</t>
+  </si>
+  <si>
+    <t>zxha7flowa1</t>
+  </si>
+  <si>
+    <t>ibc/411696BCA818756CF0205B52A887D682EAF829A5D186E608C263FC369258010F</t>
+  </si>
+  <si>
+    <t>zxha8flowa2</t>
+  </si>
+  <si>
+    <t>ibc/6F9BEBBB7A0449FBCC141D06850F51EE67A463365A6428A98D5190383CA57983</t>
+  </si>
+  <si>
+    <t>zxha9flowa3</t>
+  </si>
+  <si>
+    <t>ibc/A805720A51D8C110AD003C639E6E1EBA9C75A0A6D7355998C9185FFFE129EE50</t>
+  </si>
+  <si>
+    <t>zxha10flowa4</t>
+  </si>
+  <si>
+    <t>ibc/B2C02961A2EBC5CFC03EF80CA5C9F30F680738AD4436CFE85A0130A178763671</t>
+  </si>
+  <si>
+    <t>zxha11flowa52</t>
+  </si>
+  <si>
+    <t>ibc/9592CADDC91BF3EE94E9E8A4D2E9C198057580F7B8E7672EE2CD9B06E7D49B80</t>
+  </si>
+  <si>
+    <t>zxha12flowa6</t>
+  </si>
+  <si>
+    <t>A83308511FCD958E9EC28192202A494FD78EF7FB31BA72CEC17BFDA84B090F3B</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>F5ED1090420E391CA94A31B55484D554C46CD218CA093A5477005D420AE34328</t>
+  </si>
+  <si>
+    <t>A0712E8B535A296E52C5D4DBE0B4FB5C3C35D32222CC58127E7E051AD715E3B6</t>
+  </si>
+  <si>
+    <t>0B54F72F68B58CA2304267063B003BC21B93B9F37FC27208EDD86DCCB52ABA00</t>
+  </si>
+  <si>
+    <t>5B21D03CD930340DA1C991BDF3D9FBAFF006712359B0ABCE2629ECCA8FAF785C</t>
+  </si>
+  <si>
+    <t>190B5166C515633E9D9764FA72FE096CC461E3238405CDE255CB72472CC008AD</t>
+  </si>
+  <si>
+    <t>1994D4BBEA320827463928339E886D908FDC0D1BA4CB565E8F7F2C27AC24892B</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>BA8420906BF6D49951129C3EA8D2DB73960515449F83D5397A1D48FCD701E196</t>
+  </si>
+  <si>
+    <t>8335980DBE04F5EA1B2ECB6F117D2EAA3B6707E783DF845312E4A5374FD1747B</t>
+  </si>
+  <si>
+    <t>45FAA1B01AA83BAE59C1F5FACE0E2BB6FACC2A3C2863C93E158302418491F34F</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>9C1E7CE5656C53930E76EF3A91468E41397D9E96315BBE3A9C588C6B24FB5014</t>
+  </si>
+  <si>
+    <t>346553CDB21169145DA7846774770B7D8566741DA1CE6D1E838C6EA6B573A388</t>
+  </si>
+  <si>
+    <t>4BA27A1DE93B74C3A01A3979A7794BF823339D9B5225EAE637F5BDA815C1A90B</t>
+  </si>
+  <si>
+    <t>F5A5B9B01414FF42AE5320391208DA93EA3F3A28604559511D9E94E86A24B0AE</t>
+  </si>
+  <si>
+    <t>079ACC051AF4D3EEC52F9B9725227D6621DE5630232742E8B6AA8DF730C84A68</t>
+  </si>
+  <si>
+    <t>2FB573E21E3DDCA44D1B6299E4E96F33703B4B1BA8630943B7CD8F9CBB2C49B5</t>
+  </si>
+  <si>
+    <t>CFEBD8CB46CF5AB035E67865ECC1E5C9BB7AE1277BE4D8A57F057B1FFECA20F6</t>
+  </si>
+  <si>
+    <t>01664FA3CCAD0FADBD23C691273B6F6019C6C49085821B7AB1F1168111C668D1</t>
+  </si>
+  <si>
+    <t>7C2A670136AEAF954945782DA3040965BB59C6E1A97EFB51000E8A80599E5CA3</t>
+  </si>
+  <si>
+    <t>BE3BA731A5D2BCD57E27944314196A79378880A154903DDB14DF889408CD57A1</t>
+  </si>
+  <si>
+    <t>679C71A1F1C725E1BA8B13D0311F39AC7F19256885BB1BAD72D343662C8CE85B</t>
+  </si>
+  <si>
+    <t>73EC33E7809A545F82C93FD192B63858D0BA702090FD34566FEFE05C55511003</t>
+  </si>
+  <si>
+    <t>D7116B407EE2DACE8C9630A935C79DAD561B979DE0535AB3F711767872D11CD0</t>
+  </si>
+  <si>
+    <t>02EB2191D6EF2AC8457F246E66E48A30A640EF7C69D03C588BF6F20A02C093F1</t>
+  </si>
+  <si>
+    <t>9B68FDBC3166404CB1B393F2AF978E8E565E7551180D33D71D3BF42EEAB36272</t>
+  </si>
+  <si>
+    <t>678D3CD936B4AC36373DA3C8707935518AD6B3C32089D6100C076D4B2FFE7C52</t>
+  </si>
+  <si>
+    <t>42485A9C8D359040BDB8531DA4E3483EA65B2DF57149E6CBD50EBA5AB5AB3F5C</t>
+  </si>
+  <si>
+    <t>EFD6C78E7AF50A8A97D0148E95CF006220405F6B2AB14BAEA035055C1D5696B4</t>
+  </si>
+  <si>
+    <t>2524880D340EECB4F16BBE6A900DC1578EC8A3F1D592C2442DECD56E9760BC12</t>
+  </si>
+  <si>
+    <t>4329C7310928410F23B3604AFC5D95B32DA2A6EDDF8E70FA6B933E693D1B8AF6</t>
+  </si>
+  <si>
+    <t>4672582D40AD199BA7544D4FFC671B2C3AA62B11BBF76790CA3BC8635E99A1B7</t>
+  </si>
+  <si>
+    <t>6D1ED620D8346564E60C366EA96631687ABAAD56CB6BD9D2ADA15BEAF531D13B</t>
+  </si>
+  <si>
+    <t>CD3FE4BCCD849689C4CFD9AFDB504A2F4C50FE22CDE63091D7FEF8AE27249EAB</t>
+  </si>
+  <si>
+    <t>100996DD4EF22F3B86A600C2216B0CE269578870FB6F784BF95B4AC09501BE09</t>
+  </si>
+  <si>
+    <t>95E97D7767D4D857C97223386A05E4A46BA1A3E7F7A6B0F4AF1B861C6A4D2F74</t>
+  </si>
+  <si>
+    <t>8CBE8A478CF81638F127EC4D11E25B5D7CF36036E4C9C7396D17DC6A167C3761</t>
+  </si>
+  <si>
+    <t>597AB943719EBCF04E269D0BBAD14A55C802254392FD44930AFA20962195B1CB</t>
+  </si>
+  <si>
+    <t>F7DC14CD85DEB6ECD7B9B3B80DFAC78E7A12A605DEE090627666DD6C277B1A38</t>
+  </si>
+  <si>
+    <t>BCDA3BE4A36AD209A9EE7F1A7E760EB6A9F495A51FEB8639900BBAA49F70EAD2</t>
+  </si>
+  <si>
+    <t>10476EF8F70DB4CE4351B0D796BF53444148BE33EA086DA687737E036BE24F88</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -1139,8 +1313,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1218,7 +1392,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1236,11 +1410,11 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1431,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1275,11 +1449,11 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1470,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1315,10 +1489,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1509,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1354,10 +1528,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1371,13 +1545,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1388,25 +1562,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1420,13 +1608,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1437,25 +1625,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1469,13 +1671,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1486,25 +1688,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1518,13 +1734,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1535,25 +1751,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1567,13 +1797,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1584,25 +1814,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1616,13 +1860,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1633,25 +1877,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1926,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1703,13 +1961,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1720,25 +1978,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1752,13 +2040,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1769,25 +2057,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +2122,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1819,12 +2137,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1841,7 +2159,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1856,12 +2174,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1893,12 +2211,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1930,12 +2248,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1949,13 +2267,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8583333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0083333333333" style="1" customWidth="1"/>
@@ -1974,13 +2292,24 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +2326,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2018,21 +2347,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2378,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2070,21 +2399,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2430,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2122,21 +2451,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2482,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2175,21 +2504,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2535,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2225,10 +2554,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2574,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2263,11 +2592,11 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/XuehaiZhang/evidence.xlsx
+++ b/XuehaiZhang/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="11" activeTab="20"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="10" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
   <si>
     <t>TeamName</t>
   </si>
@@ -304,10 +305,22 @@
     <t>10476EF8F70DB4CE4351B0D796BF53444148BE33EA086DA687737E036BE24F88</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
+    <t>60674D26EA4EFC678DBE20B04D740446A834039E5E512E22FBA3E8DBEEE98AA7</t>
+  </si>
+  <si>
+    <t>7139FD46E70778EA907AFAFDD7A6FDD3D2A0A933B55BBE37D42D1C83DE233C7C</t>
+  </si>
+  <si>
+    <t>A5DEEDAA5E19EF65A5890A89C1BC0826C5CE0D69ED14F966942588DF69F7D3BC</t>
+  </si>
+  <si>
+    <t>0BE46DE6C9838B671654754750B4F5D9989B298EBC9133A0BAA806E59C25959C</t>
+  </si>
+  <si>
+    <t>EB433BB7E0AB528F717E0A0B485CB22FCD351A91A6420B54CE2DB78EC5D909DF</t>
+  </si>
+  <si>
+    <t>86BA491D7FDD1EA1DF221D7F8CC2962FD55AECE6C955293C73E8F340326FFD49</t>
   </si>
 </sst>
 </file>
@@ -1547,8 +1560,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -2042,8 +2055,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -2196,7 +2209,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -2233,7 +2246,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -2248,16 +2261,51 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="12.4333333333333" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2326,6 +2374,58 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="17.8583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.0083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4333333333333" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2352,16 +2452,16 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2378,7 +2478,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2404,62 +2504,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4333333333333" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -2482,7 +2530,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2512,7 +2560,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
